--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.2987494964953</v>
+        <v>174.8002999915088</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.2264503712401</v>
+        <v>239.1694820932485</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.1669435288534</v>
+        <v>216.3434823988145</v>
       </c>
       <c r="AD2" t="n">
-        <v>138298.7494964953</v>
+        <v>174800.2999915087</v>
       </c>
       <c r="AE2" t="n">
-        <v>189226.4503712401</v>
+        <v>239169.4820932485</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.402751533276436e-06</v>
+        <v>4.44571941158282e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.321614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>171166.9435288534</v>
+        <v>216343.4823988145</v>
       </c>
     </row>
     <row r="3">
@@ -4458,28 +4458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.8512352326323</v>
+        <v>136.2425259685394</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.039794573459</v>
+        <v>186.4130346261125</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.4338913721106</v>
+        <v>168.6220362337861</v>
       </c>
       <c r="AD3" t="n">
-        <v>111851.2352326323</v>
+        <v>136242.5259685394</v>
       </c>
       <c r="AE3" t="n">
-        <v>153039.794573459</v>
+        <v>186413.0346261125</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.920116066981565e-06</v>
+        <v>5.402979252437435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.201822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>138433.8913721106</v>
+        <v>168622.0362337861</v>
       </c>
     </row>
     <row r="4">
@@ -4564,28 +4564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.86405220304742</v>
+        <v>132.3655131895098</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.1654254476545</v>
+        <v>181.1083347001146</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.647181334796</v>
+        <v>163.8236094235306</v>
       </c>
       <c r="AD4" t="n">
-        <v>95864.05220304742</v>
+        <v>132365.5131895098</v>
       </c>
       <c r="AE4" t="n">
-        <v>131165.4254476545</v>
+        <v>181108.3347001146</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.104163860722369e-06</v>
+        <v>5.743515857226004e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>118647.181334796</v>
+        <v>163823.6094235306</v>
       </c>
     </row>
     <row r="5">
@@ -4670,28 +4670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>93.76398602504699</v>
+        <v>130.2654470115094</v>
       </c>
       <c r="AB5" t="n">
-        <v>128.2920222545348</v>
+        <v>178.2349315069949</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.0480117095801</v>
+        <v>161.2244397983146</v>
       </c>
       <c r="AD5" t="n">
-        <v>93763.98602504699</v>
+        <v>130265.4470115094</v>
       </c>
       <c r="AE5" t="n">
-        <v>128292.0222545348</v>
+        <v>178234.9315069948</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.211768214450348e-06</v>
+        <v>5.942612083995224e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.733072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>116048.0117095801</v>
+        <v>161224.4397983146</v>
       </c>
     </row>
     <row r="6">
@@ -4776,28 +4776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>92.57340850743013</v>
+        <v>129.0748694938925</v>
       </c>
       <c r="AB6" t="n">
-        <v>126.6630215703591</v>
+        <v>176.6059308228192</v>
       </c>
       <c r="AC6" t="n">
-        <v>114.5744805643848</v>
+        <v>159.7509086531193</v>
       </c>
       <c r="AD6" t="n">
-        <v>92573.40850743013</v>
+        <v>129074.8694938925</v>
       </c>
       <c r="AE6" t="n">
-        <v>126663.0215703591</v>
+        <v>176605.9308228192</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.266947540309988e-06</v>
+        <v>6.044708283579268e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.6484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>114574.4805643848</v>
+        <v>159750.9086531193</v>
       </c>
     </row>
     <row r="7">
@@ -4882,28 +4882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>91.58603919199889</v>
+        <v>116.0625812739265</v>
       </c>
       <c r="AB7" t="n">
-        <v>125.3120593133269</v>
+        <v>158.8019440186296</v>
       </c>
       <c r="AC7" t="n">
-        <v>113.3524522490758</v>
+        <v>143.6461093614635</v>
       </c>
       <c r="AD7" t="n">
-        <v>91586.03919199889</v>
+        <v>116062.5812739265</v>
       </c>
       <c r="AE7" t="n">
-        <v>125312.0593133269</v>
+        <v>158801.9440186296</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.320002788905149e-06</v>
+        <v>6.142874384109949e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.576822916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>113352.4522490758</v>
+        <v>143646.1093614635</v>
       </c>
     </row>
     <row r="8">
@@ -4988,28 +4988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>91.02507066273553</v>
+        <v>115.5016127446632</v>
       </c>
       <c r="AB8" t="n">
-        <v>124.5445174234042</v>
+        <v>158.034402128707</v>
       </c>
       <c r="AC8" t="n">
-        <v>112.6581634798753</v>
+        <v>142.951820592263</v>
       </c>
       <c r="AD8" t="n">
-        <v>91025.07066273552</v>
+        <v>115501.6127446632</v>
       </c>
       <c r="AE8" t="n">
-        <v>124544.5174234042</v>
+        <v>158034.402128707</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.347125621666952e-06</v>
+        <v>6.193058725868264e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.537760416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>112658.1634798753</v>
+        <v>142951.820592263</v>
       </c>
     </row>
     <row r="9">
@@ -5094,28 +5094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>90.26599950205446</v>
+        <v>114.5719493833899</v>
       </c>
       <c r="AB9" t="n">
-        <v>123.5059227735048</v>
+        <v>156.7623957039606</v>
       </c>
       <c r="AC9" t="n">
-        <v>111.7186908456852</v>
+        <v>141.8012126754219</v>
       </c>
       <c r="AD9" t="n">
-        <v>90265.99950205446</v>
+        <v>114571.9493833899</v>
       </c>
       <c r="AE9" t="n">
-        <v>123505.9227735048</v>
+        <v>156762.3957039606</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.378893414600527e-06</v>
+        <v>6.251837460061954e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.498697916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>111718.6908456852</v>
+        <v>141801.2126754219</v>
       </c>
     </row>
     <row r="10">
@@ -5200,28 +5200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>89.92726601583834</v>
+        <v>114.2332158971738</v>
       </c>
       <c r="AB10" t="n">
-        <v>123.0424526737974</v>
+        <v>156.2989256042532</v>
       </c>
       <c r="AC10" t="n">
-        <v>111.2994536818094</v>
+        <v>141.381975511546</v>
       </c>
       <c r="AD10" t="n">
-        <v>89927.26601583834</v>
+        <v>114233.2158971738</v>
       </c>
       <c r="AE10" t="n">
-        <v>123042.4526737974</v>
+        <v>156298.9256042533</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.378473267449312e-06</v>
+        <v>6.251060077831619e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.498697916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>111299.4536818094</v>
+        <v>141381.975511546</v>
       </c>
     </row>
     <row r="11">
@@ -5306,28 +5306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>89.48011978135854</v>
+        <v>113.786069662694</v>
       </c>
       <c r="AB11" t="n">
-        <v>122.4306474690828</v>
+        <v>155.6871203995387</v>
       </c>
       <c r="AC11" t="n">
-        <v>110.7460383071586</v>
+        <v>140.8285601368952</v>
       </c>
       <c r="AD11" t="n">
-        <v>89480.11978135855</v>
+        <v>113786.069662694</v>
       </c>
       <c r="AE11" t="n">
-        <v>122430.6474690828</v>
+        <v>155687.1203995387</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.403378656913032e-06</v>
+        <v>6.29714156892983e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.466145833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>110746.0383071586</v>
+        <v>140828.5601368952</v>
       </c>
     </row>
     <row r="12">
@@ -5412,28 +5412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>88.86500081681764</v>
+        <v>113.1709506981531</v>
       </c>
       <c r="AB12" t="n">
-        <v>121.5890145646649</v>
+        <v>154.8454874951208</v>
       </c>
       <c r="AC12" t="n">
-        <v>109.9847296658988</v>
+        <v>140.0672514956355</v>
       </c>
       <c r="AD12" t="n">
-        <v>88865.00081681764</v>
+        <v>113170.9506981531</v>
       </c>
       <c r="AE12" t="n">
-        <v>121589.0145646649</v>
+        <v>154845.4874951208</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.405852856803524e-06</v>
+        <v>6.301719486508472e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.459635416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>109984.7296658988</v>
+        <v>140067.2514956355</v>
       </c>
     </row>
     <row r="13">
@@ -5518,28 +5518,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>88.17486300012591</v>
+        <v>112.4808128814614</v>
       </c>
       <c r="AB13" t="n">
-        <v>120.6447375571361</v>
+        <v>153.901210487592</v>
       </c>
       <c r="AC13" t="n">
-        <v>109.1305731306672</v>
+        <v>139.2130949604038</v>
       </c>
       <c r="AD13" t="n">
-        <v>88174.86300012592</v>
+        <v>112480.8128814614</v>
       </c>
       <c r="AE13" t="n">
-        <v>120644.7375571361</v>
+        <v>153901.210487592</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.43523981588021e-06</v>
+        <v>6.356093054730261e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.420572916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>109130.5731306672</v>
+        <v>139213.0949604038</v>
       </c>
     </row>
     <row r="14">
@@ -5624,28 +5624,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>88.14295013244738</v>
+        <v>112.4489000137828</v>
       </c>
       <c r="AB14" t="n">
-        <v>120.601072963682</v>
+        <v>153.8575458941379</v>
       </c>
       <c r="AC14" t="n">
-        <v>109.0910758247287</v>
+        <v>139.1735976544653</v>
       </c>
       <c r="AD14" t="n">
-        <v>88142.95013244738</v>
+        <v>112448.9000137828</v>
       </c>
       <c r="AE14" t="n">
-        <v>120601.072963682</v>
+        <v>153857.5458941379</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.433419178224943e-06</v>
+        <v>6.352724398398808e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>109091.0758247287</v>
+        <v>139173.5976544654</v>
       </c>
     </row>
     <row r="15">
@@ -5730,28 +5730,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>87.57368504313854</v>
+        <v>111.879634924474</v>
       </c>
       <c r="AB15" t="n">
-        <v>119.8221793542867</v>
+        <v>153.0786522847426</v>
       </c>
       <c r="AC15" t="n">
-        <v>108.3865187282298</v>
+        <v>138.4690405579665</v>
       </c>
       <c r="AD15" t="n">
-        <v>87573.68504313854</v>
+        <v>111879.634924474</v>
       </c>
       <c r="AE15" t="n">
-        <v>119822.1793542868</v>
+        <v>153078.6522847426</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.438624334598336e-06</v>
+        <v>6.362355300474629e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.420572916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>108386.5187282298</v>
+        <v>138469.0405579665</v>
       </c>
     </row>
     <row r="16">
@@ -5836,28 +5836,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>87.13820654139801</v>
+        <v>111.4441564227335</v>
       </c>
       <c r="AB16" t="n">
-        <v>119.2263384562501</v>
+        <v>152.4828113867059</v>
       </c>
       <c r="AC16" t="n">
-        <v>107.8475440492336</v>
+        <v>137.9300658789703</v>
       </c>
       <c r="AD16" t="n">
-        <v>87138.206541398</v>
+        <v>111444.1564227335</v>
       </c>
       <c r="AE16" t="n">
-        <v>119226.3384562501</v>
+        <v>152482.811386706</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.439744727001577e-06</v>
+        <v>6.364428319755523e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.420572916666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>107847.5440492336</v>
+        <v>137930.0658789703</v>
       </c>
     </row>
     <row r="17">
@@ -5942,28 +5942,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>87.25296274065579</v>
+        <v>111.5589126219912</v>
       </c>
       <c r="AB17" t="n">
-        <v>119.3833529507607</v>
+        <v>152.6398258812166</v>
       </c>
       <c r="AC17" t="n">
-        <v>107.9895733007594</v>
+        <v>138.0720951304961</v>
       </c>
       <c r="AD17" t="n">
-        <v>87252.96274065578</v>
+        <v>111558.9126219912</v>
       </c>
       <c r="AE17" t="n">
-        <v>119383.3529507607</v>
+        <v>152639.8258812166</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.439184530799956e-06</v>
+        <v>6.363391810115077e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.420572916666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>107989.5733007594</v>
+        <v>138072.0951304961</v>
       </c>
     </row>
   </sheetData>
@@ -6239,28 +6239,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.5544065071533</v>
+        <v>146.8455429053045</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.6336604160996</v>
+        <v>200.9205501710808</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.0665180887166</v>
+        <v>181.7449748565732</v>
       </c>
       <c r="AD2" t="n">
-        <v>111554.4065071533</v>
+        <v>146845.5429053046</v>
       </c>
       <c r="AE2" t="n">
-        <v>152633.6604160996</v>
+        <v>200920.5501710808</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.767064027609623e-06</v>
+        <v>5.274451084252474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.68359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>138066.5180887166</v>
+        <v>181744.9748565732</v>
       </c>
     </row>
     <row r="3">
@@ -6345,28 +6345,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.26585133991851</v>
+        <v>125.4716468834981</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.5057200515339</v>
+        <v>171.6758426843175</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.7185074712147</v>
+        <v>155.2913412071325</v>
       </c>
       <c r="AD3" t="n">
-        <v>90265.85133991852</v>
+        <v>125471.6468834981</v>
       </c>
       <c r="AE3" t="n">
-        <v>123505.7200515339</v>
+        <v>171675.8426843175</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.239562032690692e-06</v>
+        <v>6.175105203687462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>111718.5074712147</v>
+        <v>155291.3412071325</v>
       </c>
     </row>
     <row r="4">
@@ -6451,28 +6451,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.79208284143161</v>
+        <v>122.9978783850112</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.121000856942</v>
+        <v>168.2911234897256</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.6568211260704</v>
+        <v>152.2296548619882</v>
       </c>
       <c r="AD4" t="n">
-        <v>87792.08284143161</v>
+        <v>122997.8783850112</v>
       </c>
       <c r="AE4" t="n">
-        <v>120121.000856942</v>
+        <v>168291.1234897256</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.396658926653153e-06</v>
+        <v>6.474556128720374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.62890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>108656.8211260704</v>
+        <v>152229.6548619882</v>
       </c>
     </row>
     <row r="5">
@@ -6557,28 +6557,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.0037640133413</v>
+        <v>109.4459369327549</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.6741441412915</v>
+        <v>149.7487593252964</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.4434889811758</v>
+        <v>135.4569479090347</v>
       </c>
       <c r="AD5" t="n">
-        <v>86003.76401334129</v>
+        <v>109445.9369327549</v>
       </c>
       <c r="AE5" t="n">
-        <v>117674.1441412915</v>
+        <v>149748.7593252964</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.503434589902768e-06</v>
+        <v>6.678087021818366e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.485677083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>106443.4889811758</v>
+        <v>135456.9479090347</v>
       </c>
     </row>
     <row r="6">
@@ -6663,28 +6663,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.95728423205439</v>
+        <v>108.399457151468</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.2423043371059</v>
+        <v>148.3169195211108</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.1483019583014</v>
+        <v>134.1617608861602</v>
       </c>
       <c r="AD6" t="n">
-        <v>84957.28423205439</v>
+        <v>108399.457151468</v>
       </c>
       <c r="AE6" t="n">
-        <v>116242.3043371059</v>
+        <v>148316.9195211108</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.563028062743124e-06</v>
+        <v>6.79168137825569e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.4140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>105148.3019583014</v>
+        <v>134161.7608861602</v>
       </c>
     </row>
     <row r="7">
@@ -6769,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>84.44580162876053</v>
+        <v>107.8879745481741</v>
       </c>
       <c r="AB7" t="n">
-        <v>115.5424712742596</v>
+        <v>147.6170864582646</v>
       </c>
       <c r="AC7" t="n">
-        <v>104.5152599807511</v>
+        <v>133.52871890861</v>
       </c>
       <c r="AD7" t="n">
-        <v>84445.80162876053</v>
+        <v>107887.9745481741</v>
       </c>
       <c r="AE7" t="n">
-        <v>115542.4712742596</v>
+        <v>147617.0864582646</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.58536354182632e-06</v>
+        <v>6.834256248476324e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.381510416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>104515.2599807511</v>
+        <v>133528.71890861</v>
       </c>
     </row>
     <row r="8">
@@ -6875,28 +6875,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>83.69059152188068</v>
+        <v>107.1327644412943</v>
       </c>
       <c r="AB8" t="n">
-        <v>114.5091594885087</v>
+        <v>146.5837746725136</v>
       </c>
       <c r="AC8" t="n">
-        <v>103.5805660215697</v>
+        <v>132.5940249494286</v>
       </c>
       <c r="AD8" t="n">
-        <v>83690.59152188068</v>
+        <v>107132.7644412943</v>
       </c>
       <c r="AE8" t="n">
-        <v>114509.1594885087</v>
+        <v>146583.7746725136</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.617599071097745e-06</v>
+        <v>6.895702142254212e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.342447916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>103580.5660215697</v>
+        <v>132594.0249494286</v>
       </c>
     </row>
     <row r="9">
@@ -6981,28 +6981,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>83.0428597167592</v>
+        <v>106.4850326361728</v>
       </c>
       <c r="AB9" t="n">
-        <v>113.6229042568314</v>
+        <v>145.6975194408364</v>
       </c>
       <c r="AC9" t="n">
-        <v>102.7788937453364</v>
+        <v>131.7923526731953</v>
       </c>
       <c r="AD9" t="n">
-        <v>83042.85971675919</v>
+        <v>106485.0326361728</v>
       </c>
       <c r="AE9" t="n">
-        <v>113622.9042568314</v>
+        <v>145697.5194408364</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.63759234318519e-06</v>
+        <v>6.93381240446252e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>102778.8937453364</v>
+        <v>131792.3526731953</v>
       </c>
     </row>
     <row r="10">
@@ -7087,28 +7087,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>82.43119984849882</v>
+        <v>105.8733727679124</v>
       </c>
       <c r="AB10" t="n">
-        <v>112.7860042405491</v>
+        <v>144.860619424554</v>
       </c>
       <c r="AC10" t="n">
-        <v>102.0218662920113</v>
+        <v>131.0353252198701</v>
       </c>
       <c r="AD10" t="n">
-        <v>82431.19984849881</v>
+        <v>105873.3727679124</v>
       </c>
       <c r="AE10" t="n">
-        <v>112786.0042405491</v>
+        <v>144860.619424554</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.647661418620533e-06</v>
+        <v>6.953005616226848e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.309895833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>102021.8662920113</v>
+        <v>131035.3252198701</v>
       </c>
     </row>
     <row r="11">
@@ -7193,28 +7193,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>81.69554106166636</v>
+        <v>105.1377139810799</v>
       </c>
       <c r="AB11" t="n">
-        <v>111.7794434334303</v>
+        <v>143.8540586174352</v>
       </c>
       <c r="AC11" t="n">
-        <v>101.1113702356066</v>
+        <v>130.1248291634655</v>
       </c>
       <c r="AD11" t="n">
-        <v>81695.54106166636</v>
+        <v>105137.7139810799</v>
       </c>
       <c r="AE11" t="n">
-        <v>111779.4434334303</v>
+        <v>143854.0586174352</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.671373246144532e-06</v>
+        <v>6.998204018990808e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.283854166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>101111.3702356066</v>
+        <v>130124.8291634655</v>
       </c>
     </row>
     <row r="12">
@@ -7299,28 +7299,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>81.76079664660858</v>
+        <v>105.2029695660222</v>
       </c>
       <c r="AB12" t="n">
-        <v>111.8687290036215</v>
+        <v>143.9433441876264</v>
       </c>
       <c r="AC12" t="n">
-        <v>101.1921345162918</v>
+        <v>130.2055934441507</v>
       </c>
       <c r="AD12" t="n">
-        <v>81760.79664660858</v>
+        <v>105202.9695660222</v>
       </c>
       <c r="AE12" t="n">
-        <v>111868.7290036215</v>
+        <v>143943.3441876264</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.67122836736129e-06</v>
+        <v>6.997927857670458e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.283854166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>101192.1345162918</v>
+        <v>130205.5934441507</v>
       </c>
     </row>
   </sheetData>
@@ -7596,28 +7596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.54945591267838</v>
+        <v>93.39108954903929</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.26536623579187</v>
+        <v>127.7818088450298</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.79161900208913</v>
+        <v>115.5864923517891</v>
       </c>
       <c r="AD2" t="n">
-        <v>72549.45591267839</v>
+        <v>93391.08954903929</v>
       </c>
       <c r="AE2" t="n">
-        <v>99265.36623579188</v>
+        <v>127781.8088450298</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.898491167893767e-06</v>
+        <v>8.302765941035865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.498697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>89791.61900208914</v>
+        <v>115586.4923517891</v>
       </c>
     </row>
     <row r="3">
@@ -7702,28 +7702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.3930236652506</v>
+        <v>90.23465730161151</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.94659638290051</v>
+        <v>123.4630389921384</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.88502648252478</v>
+        <v>111.6798998322247</v>
       </c>
       <c r="AD3" t="n">
-        <v>69393.0236652506</v>
+        <v>90234.6573016115</v>
       </c>
       <c r="AE3" t="n">
-        <v>94946.5963829005</v>
+        <v>123463.0389921384</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.214381874529285e-06</v>
+        <v>8.975530476644683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.16015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>85885.02648252477</v>
+        <v>111679.8998322247</v>
       </c>
     </row>
     <row r="4">
@@ -7808,28 +7808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.76039109106469</v>
+        <v>88.6020247274256</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.71275646823469</v>
+        <v>121.2291990774726</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.86438111409994</v>
+        <v>109.6592544637999</v>
       </c>
       <c r="AD4" t="n">
-        <v>67760.3910910647</v>
+        <v>88602.0247274256</v>
       </c>
       <c r="AE4" t="n">
-        <v>92712.75646823469</v>
+        <v>121229.1990774726</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.320810422056605e-06</v>
+        <v>9.202195430214696e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>83864.38111409995</v>
+        <v>109659.2544637999</v>
       </c>
     </row>
     <row r="5">
@@ -7914,28 +7914,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.80263214770416</v>
+        <v>88.64426578406508</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.77055254547267</v>
+        <v>121.2869951547106</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.91666121484367</v>
+        <v>109.7115345645436</v>
       </c>
       <c r="AD5" t="n">
-        <v>67802.63214770416</v>
+        <v>88644.26578406508</v>
       </c>
       <c r="AE5" t="n">
-        <v>92770.55254547267</v>
+        <v>121286.9951547106</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.316014401433854e-06</v>
+        <v>9.191981161420908e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>83916.66121484367</v>
+        <v>109711.5345645436</v>
       </c>
     </row>
   </sheetData>
@@ -8211,28 +8211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.70920293941069</v>
+        <v>114.5392502234397</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.7981362172796</v>
+        <v>156.7176552707316</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.1282790064008</v>
+        <v>141.7607422063466</v>
       </c>
       <c r="AD2" t="n">
-        <v>81709.20293941069</v>
+        <v>114539.2502234397</v>
       </c>
       <c r="AE2" t="n">
-        <v>111798.1362172796</v>
+        <v>156717.6552707316</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.438263597707299e-06</v>
+        <v>6.98086381993472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.8828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>101128.2790064008</v>
+        <v>141760.7422063466</v>
       </c>
     </row>
     <row r="3">
@@ -8317,28 +8317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.81938952783649</v>
+        <v>98.67773027421633</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.1076777842244</v>
+        <v>135.0152239153416</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.07634853607692</v>
+        <v>122.1295604399544</v>
       </c>
       <c r="AD3" t="n">
-        <v>76819.38952783649</v>
+        <v>98677.73027421633</v>
       </c>
       <c r="AE3" t="n">
-        <v>105107.6777842244</v>
+        <v>135015.2239153416</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.829446375459465e-06</v>
+        <v>7.775100103043616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.381510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>95076.34853607693</v>
+        <v>122129.5604399544</v>
       </c>
     </row>
     <row r="4">
@@ -8423,28 +8423,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.05195925869644</v>
+        <v>96.91030000507628</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.6894017164679</v>
+        <v>132.5969478475851</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.88886934215449</v>
+        <v>119.942081246032</v>
       </c>
       <c r="AD4" t="n">
-        <v>75051.95925869644</v>
+        <v>96910.30000507628</v>
       </c>
       <c r="AE4" t="n">
-        <v>102689.4017164679</v>
+        <v>132596.947847585</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.962040221582102e-06</v>
+        <v>8.044311452563392e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.23828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>92888.86934215449</v>
+        <v>119942.081246032</v>
       </c>
     </row>
     <row r="5">
@@ -8529,28 +8529,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>73.96669680356331</v>
+        <v>95.82503754994313</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.204497746955</v>
+        <v>131.1120438780722</v>
       </c>
       <c r="AC5" t="n">
-        <v>91.54568252341565</v>
+        <v>118.5988944272932</v>
       </c>
       <c r="AD5" t="n">
-        <v>73966.6968035633</v>
+        <v>95825.03754994314</v>
       </c>
       <c r="AE5" t="n">
-        <v>101204.497746955</v>
+        <v>131112.0438780722</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.017098630469729e-06</v>
+        <v>8.156099058040502e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.1796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>91545.68252341566</v>
+        <v>118598.8944272932</v>
       </c>
     </row>
     <row r="6">
@@ -8635,28 +8635,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>73.15520645431448</v>
+        <v>95.01354720069432</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.0941808506858</v>
+        <v>130.001726981803</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.54133271338648</v>
+        <v>117.594544617264</v>
       </c>
       <c r="AD6" t="n">
-        <v>73155.20645431448</v>
+        <v>95013.54720069432</v>
       </c>
       <c r="AE6" t="n">
-        <v>100094.1808506858</v>
+        <v>130001.726981803</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.0655067259243e-06</v>
+        <v>8.254384228024589e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.127604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>90541.33271338648</v>
+        <v>117594.544617264</v>
       </c>
     </row>
     <row r="7">
@@ -8741,28 +8741,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>73.02926658864571</v>
+        <v>94.88760733502555</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.92186437040313</v>
+        <v>129.8294105015203</v>
       </c>
       <c r="AC7" t="n">
-        <v>90.38546187613423</v>
+        <v>117.4386737800117</v>
       </c>
       <c r="AD7" t="n">
-        <v>73029.26658864571</v>
+        <v>94887.60733502555</v>
       </c>
       <c r="AE7" t="n">
-        <v>99921.86437040313</v>
+        <v>129829.4105015203</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.068522565736965e-06</v>
+        <v>8.260507425515611e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.127604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>90385.46187613423</v>
+        <v>117438.6737800117</v>
       </c>
     </row>
   </sheetData>
@@ -9038,28 +9038,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.95447419219097</v>
+        <v>85.96219944015711</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.24182129576626</v>
+        <v>117.6172736585614</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.62926852651182</v>
+        <v>106.3920461374992</v>
       </c>
       <c r="AD2" t="n">
-        <v>65954.47419219097</v>
+        <v>85962.19944015711</v>
       </c>
       <c r="AE2" t="n">
-        <v>90241.82129576626</v>
+        <v>117617.2736585614</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.282657655867924e-06</v>
+        <v>9.536642093617867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.251302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>81629.26852651182</v>
+        <v>106392.0461374992</v>
       </c>
     </row>
     <row r="3">
@@ -9144,28 +9144,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.69043502609192</v>
+        <v>83.69816027405805</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.14406302635243</v>
+        <v>114.5195153891476</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.82715595859881</v>
+        <v>103.5899335695862</v>
       </c>
       <c r="AD3" t="n">
-        <v>63690.43502609192</v>
+        <v>83698.16027405806</v>
       </c>
       <c r="AE3" t="n">
-        <v>87144.06302635242</v>
+        <v>114519.5153891476</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.522784453381042e-06</v>
+        <v>1.007135756914311e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.029947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>78827.15595859881</v>
+        <v>103589.9335695862</v>
       </c>
     </row>
     <row r="4">
@@ -9250,28 +9250,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.84056295138681</v>
+        <v>83.84828819935295</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.34947467691741</v>
+        <v>114.7249270397126</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.01296340953101</v>
+        <v>103.7757410205184</v>
       </c>
       <c r="AD4" t="n">
-        <v>63840.56295138681</v>
+        <v>83848.28819935294</v>
       </c>
       <c r="AE4" t="n">
-        <v>87349.47467691741</v>
+        <v>114724.9270397126</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.520349884987656e-06</v>
+        <v>1.006593626086078e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.029947916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>79012.96340953102</v>
+        <v>103775.7410205184</v>
       </c>
     </row>
   </sheetData>
@@ -9547,28 +9547,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.1350865941278</v>
+        <v>150.7667775769028</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.5329048795522</v>
+        <v>206.2857564414234</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.4981855367116</v>
+        <v>186.5981333705903</v>
       </c>
       <c r="AD2" t="n">
-        <v>115135.0865941278</v>
+        <v>150766.7775769028</v>
       </c>
       <c r="AE2" t="n">
-        <v>157532.9048795522</v>
+        <v>206285.7564414234</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.667068878112571e-06</v>
+        <v>5.042796936449896e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.83984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>142498.1855367117</v>
+        <v>186598.1333705903</v>
       </c>
     </row>
     <row r="3">
@@ -9653,28 +9653,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.26872971798832</v>
+        <v>127.8150798461918</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.2461466091655</v>
+        <v>174.8822310488391</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.1973915643996</v>
+        <v>158.1917163663395</v>
       </c>
       <c r="AD3" t="n">
-        <v>92268.72971798832</v>
+        <v>127815.0798461917</v>
       </c>
       <c r="AE3" t="n">
-        <v>126246.1466091655</v>
+        <v>174882.2310488391</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.172389352735541e-06</v>
+        <v>5.998238530878251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.908854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>114197.3915643996</v>
+        <v>158191.7163663395</v>
       </c>
     </row>
     <row r="4">
@@ -9759,28 +9759,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.51022661957936</v>
+        <v>125.0565767477828</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.4718409733564</v>
+        <v>171.10792541303</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.7833003611998</v>
+        <v>154.7776251631396</v>
       </c>
       <c r="AD4" t="n">
-        <v>89510.22661957935</v>
+        <v>125056.5767477828</v>
       </c>
       <c r="AE4" t="n">
-        <v>122471.8409733564</v>
+        <v>171107.92541303</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.336928993002035e-06</v>
+        <v>6.309344104742408e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.66796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>110783.3003611998</v>
+        <v>154777.6251631397</v>
       </c>
     </row>
     <row r="5">
@@ -9865,28 +9865,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.11187412521258</v>
+        <v>111.9516756349676</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.5585533996066</v>
+        <v>153.1772215630517</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.0526142681721</v>
+        <v>138.5582025226967</v>
       </c>
       <c r="AD5" t="n">
-        <v>88111.87412521258</v>
+        <v>111951.6756349676</v>
       </c>
       <c r="AE5" t="n">
-        <v>120558.5533996066</v>
+        <v>153177.2215630517</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.413910380834687e-06</v>
+        <v>6.454897716016548e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.563802083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>109052.6142681721</v>
+        <v>138558.2025226967</v>
       </c>
     </row>
     <row r="6">
@@ -9971,28 +9971,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>87.24694931259901</v>
+        <v>110.9161586217618</v>
       </c>
       <c r="AB6" t="n">
-        <v>119.3751251131997</v>
+        <v>151.7603815017979</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.9821307164674</v>
+        <v>137.276583688341</v>
       </c>
       <c r="AD6" t="n">
-        <v>87246.94931259901</v>
+        <v>110916.1586217618</v>
       </c>
       <c r="AE6" t="n">
-        <v>119375.1251131997</v>
+        <v>151760.3815017979</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.462750608551951e-06</v>
+        <v>6.547243044151618e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.498697916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>107982.1307164674</v>
+        <v>137276.583688341</v>
       </c>
     </row>
     <row r="7">
@@ -10077,28 +10077,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>86.12054648848417</v>
+        <v>109.789755797647</v>
       </c>
       <c r="AB7" t="n">
-        <v>117.8339310758611</v>
+        <v>150.2191874644593</v>
       </c>
       <c r="AC7" t="n">
-        <v>106.5880260749725</v>
+        <v>135.882479046846</v>
       </c>
       <c r="AD7" t="n">
-        <v>86120.54648848416</v>
+        <v>109789.755797647</v>
       </c>
       <c r="AE7" t="n">
-        <v>117833.9310758611</v>
+        <v>150219.1874644593</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.524225642851634e-06</v>
+        <v>6.6634778055328e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.420572916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>106588.0260749725</v>
+        <v>135882.479046846</v>
       </c>
     </row>
     <row r="8">
@@ -10183,28 +10183,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>85.42612045964697</v>
+        <v>109.0953297688097</v>
       </c>
       <c r="AB8" t="n">
-        <v>116.8837867472923</v>
+        <v>149.2690431358906</v>
       </c>
       <c r="AC8" t="n">
-        <v>105.728562187586</v>
+        <v>135.0230151594596</v>
       </c>
       <c r="AD8" t="n">
-        <v>85426.12045964696</v>
+        <v>109095.3297688098</v>
       </c>
       <c r="AE8" t="n">
-        <v>116883.7867472923</v>
+        <v>149269.0431358906</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.550667804354612e-06</v>
+        <v>6.713473683822488e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.388020833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>105728.5621875861</v>
+        <v>135023.0151594596</v>
       </c>
     </row>
     <row r="9">
@@ -10289,28 +10289,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>85.08599818062179</v>
+        <v>108.7552074897846</v>
       </c>
       <c r="AB9" t="n">
-        <v>116.4184164399943</v>
+        <v>148.8036728285926</v>
       </c>
       <c r="AC9" t="n">
-        <v>105.3076061692651</v>
+        <v>134.6020591411387</v>
       </c>
       <c r="AD9" t="n">
-        <v>85085.99818062178</v>
+        <v>108755.2074897846</v>
       </c>
       <c r="AE9" t="n">
-        <v>116418.4164399943</v>
+        <v>148803.6728285926</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.550524227007085e-06</v>
+        <v>6.713202212990147e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.388020833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>105307.6061692651</v>
+        <v>134602.0591411387</v>
       </c>
     </row>
     <row r="10">
@@ -10395,28 +10395,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>84.58422899942754</v>
+        <v>108.2534383085903</v>
       </c>
       <c r="AB10" t="n">
-        <v>115.7318737097908</v>
+        <v>148.117130098389</v>
       </c>
       <c r="AC10" t="n">
-        <v>104.6865861136632</v>
+        <v>133.9810390855367</v>
       </c>
       <c r="AD10" t="n">
-        <v>84584.22899942753</v>
+        <v>108253.4383085903</v>
       </c>
       <c r="AE10" t="n">
-        <v>115731.8737097908</v>
+        <v>148117.130098389</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.575865628845686e-06</v>
+        <v>6.761116814898544e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.35546875</v>
       </c>
       <c r="AH10" t="n">
-        <v>104686.5861136632</v>
+        <v>133981.0390855367</v>
       </c>
     </row>
     <row r="11">
@@ -10501,28 +10501,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>83.84441918879266</v>
+        <v>107.5136284979555</v>
       </c>
       <c r="AB11" t="n">
-        <v>114.7196332887753</v>
+        <v>147.1048896773735</v>
       </c>
       <c r="AC11" t="n">
-        <v>103.7709524977407</v>
+        <v>133.0654054696143</v>
       </c>
       <c r="AD11" t="n">
-        <v>83844.41918879266</v>
+        <v>107513.6284979554</v>
       </c>
       <c r="AE11" t="n">
-        <v>114719.6332887753</v>
+        <v>147104.8896773735</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.57825858463781e-06</v>
+        <v>6.765641328770914e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.35546875</v>
       </c>
       <c r="AH11" t="n">
-        <v>103770.9524977407</v>
+        <v>133065.4054696143</v>
       </c>
     </row>
     <row r="12">
@@ -10607,28 +10607,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>83.32596919967229</v>
+        <v>106.9951785088351</v>
       </c>
       <c r="AB12" t="n">
-        <v>114.0102671412618</v>
+        <v>146.3955235298601</v>
       </c>
       <c r="AC12" t="n">
-        <v>103.1292872597441</v>
+        <v>132.4237402316177</v>
       </c>
       <c r="AD12" t="n">
-        <v>83325.96919967228</v>
+        <v>106995.1785088351</v>
       </c>
       <c r="AE12" t="n">
-        <v>114010.2671412618</v>
+        <v>146395.5235298601</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.611401022358737e-06</v>
+        <v>6.828305845903237e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.31640625</v>
       </c>
       <c r="AH12" t="n">
-        <v>103129.2872597441</v>
+        <v>132423.7402316177</v>
       </c>
     </row>
     <row r="13">
@@ -10713,28 +10713,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>83.38075983982068</v>
+        <v>107.0499691489835</v>
       </c>
       <c r="AB13" t="n">
-        <v>114.0852341123053</v>
+        <v>146.4704905009036</v>
       </c>
       <c r="AC13" t="n">
-        <v>103.197099488288</v>
+        <v>132.4915524601616</v>
       </c>
       <c r="AD13" t="n">
-        <v>83380.75983982069</v>
+        <v>107049.9691489835</v>
       </c>
       <c r="AE13" t="n">
-        <v>114085.2341123053</v>
+        <v>146470.4905009036</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.605657928457637e-06</v>
+        <v>6.817447012609549e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>103197.099488288</v>
+        <v>132491.5524601616</v>
       </c>
     </row>
   </sheetData>
@@ -11010,28 +11010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.30520995814543</v>
+        <v>81.81913658172211</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.24873697657203</v>
+        <v>111.9485522766201</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.11271716690206</v>
+        <v>101.2643395681481</v>
       </c>
       <c r="AD2" t="n">
-        <v>62305.20995814542</v>
+        <v>81819.13658172211</v>
       </c>
       <c r="AE2" t="n">
-        <v>85248.73697657204</v>
+        <v>111948.5522766201</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.511463794939524e-06</v>
+        <v>1.034283188191582e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.134114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>77112.71716690206</v>
+        <v>101264.3395681481</v>
       </c>
     </row>
     <row r="3">
@@ -11116,28 +11116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.39573079432681</v>
+        <v>80.9096574179035</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.00434746124709</v>
+        <v>110.7041627612951</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.98709044040767</v>
+        <v>100.1387128416538</v>
       </c>
       <c r="AD3" t="n">
-        <v>61395.73079432681</v>
+        <v>80909.65741790351</v>
       </c>
       <c r="AE3" t="n">
-        <v>84004.34746124709</v>
+        <v>110704.1627612951</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.632286886638829e-06</v>
+        <v>1.061982688435847e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.0234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>75987.09044040767</v>
+        <v>100138.7128416538</v>
       </c>
     </row>
   </sheetData>
@@ -11413,28 +11413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.084331984706</v>
+        <v>124.8750028265707</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.6762866642919</v>
+        <v>170.8594879635518</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.3457779019891</v>
+        <v>154.5528982351554</v>
       </c>
       <c r="AD2" t="n">
-        <v>102084.331984706</v>
+        <v>124875.0028265708</v>
       </c>
       <c r="AE2" t="n">
-        <v>139676.2866642919</v>
+        <v>170859.4879635518</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.074141852272558e-06</v>
+        <v>6.025275546016153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.266927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>126345.7779019891</v>
+        <v>154552.8982351554</v>
       </c>
     </row>
     <row r="3">
@@ -11519,28 +11519,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.55874911732437</v>
+        <v>106.4346713052097</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.3287668941185</v>
+        <v>145.6286128460276</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.4173898432054</v>
+        <v>131.730022427084</v>
       </c>
       <c r="AD3" t="n">
-        <v>83558.74911732436</v>
+        <v>106434.6713052097</v>
       </c>
       <c r="AE3" t="n">
-        <v>114328.7668941185</v>
+        <v>145628.6128460276</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.518867060064479e-06</v>
+        <v>6.896930807215216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.602864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>103417.3898432054</v>
+        <v>131730.022427084</v>
       </c>
     </row>
     <row r="4">
@@ -11625,28 +11625,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.59940031065507</v>
+        <v>104.3047302979482</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.6478994164662</v>
+        <v>142.7143335935284</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.9923805949983</v>
+        <v>129.0938778962258</v>
       </c>
       <c r="AD4" t="n">
-        <v>81599.40031065507</v>
+        <v>104304.7302979482</v>
       </c>
       <c r="AE4" t="n">
-        <v>111647.8994164662</v>
+        <v>142714.3335935284</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.659628708402289e-06</v>
+        <v>7.172821692640609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>100992.3805949983</v>
+        <v>129093.8778962258</v>
       </c>
     </row>
     <row r="5">
@@ -11731,28 +11731,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>80.43211472471468</v>
+        <v>103.1374447120078</v>
       </c>
       <c r="AB5" t="n">
-        <v>110.0507677807777</v>
+        <v>141.11720195784</v>
       </c>
       <c r="AC5" t="n">
-        <v>99.54767696103113</v>
+        <v>127.6491742622587</v>
       </c>
       <c r="AD5" t="n">
-        <v>80432.11472471467</v>
+        <v>103137.4447120078</v>
       </c>
       <c r="AE5" t="n">
-        <v>110050.7677807777</v>
+        <v>141117.20195784</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.735955455857291e-06</v>
+        <v>7.322421062821786e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.3359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>99547.67696103113</v>
+        <v>127649.1742622587</v>
       </c>
     </row>
     <row r="6">
@@ -11837,28 +11837,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>79.30394719035476</v>
+        <v>102.0092771776479</v>
       </c>
       <c r="AB6" t="n">
-        <v>108.5071591890283</v>
+        <v>139.5735933660906</v>
       </c>
       <c r="AC6" t="n">
-        <v>98.15138820680954</v>
+        <v>126.2528855080371</v>
       </c>
       <c r="AD6" t="n">
-        <v>79303.94719035477</v>
+        <v>102009.2771776479</v>
       </c>
       <c r="AE6" t="n">
-        <v>108507.1591890283</v>
+        <v>139573.5933660906</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.795812742160008e-06</v>
+        <v>7.439740516751355e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.264322916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>98151.38820680954</v>
+        <v>126252.8855080371</v>
       </c>
     </row>
     <row r="7">
@@ -11943,28 +11943,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>78.58834623538354</v>
+        <v>101.2936762226766</v>
       </c>
       <c r="AB7" t="n">
-        <v>107.5280423923512</v>
+        <v>138.5944765694135</v>
       </c>
       <c r="AC7" t="n">
-        <v>97.26571694300787</v>
+        <v>125.3672142442354</v>
       </c>
       <c r="AD7" t="n">
-        <v>78588.34623538353</v>
+        <v>101293.6762226766</v>
       </c>
       <c r="AE7" t="n">
-        <v>107528.0423923512</v>
+        <v>138594.4765694135</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.826462857174532e-06</v>
+        <v>7.49981431859725e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.231770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>97265.71694300788</v>
+        <v>125367.2142442354</v>
       </c>
     </row>
     <row r="8">
@@ -12049,28 +12049,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>77.93452061821412</v>
+        <v>100.6398506055072</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.63344933819</v>
+        <v>137.6998835152522</v>
       </c>
       <c r="AC8" t="n">
-        <v>96.45650259436627</v>
+        <v>124.5579998955938</v>
       </c>
       <c r="AD8" t="n">
-        <v>77934.52061821413</v>
+        <v>100639.8506055072</v>
       </c>
       <c r="AE8" t="n">
-        <v>106633.44933819</v>
+        <v>137699.8835152522</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.848330918130512e-06</v>
+        <v>7.542675415855809e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.205729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>96456.50259436628</v>
+        <v>124557.9998955938</v>
       </c>
     </row>
     <row r="9">
@@ -12155,28 +12155,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>77.6625601954259</v>
+        <v>100.367890182719</v>
       </c>
       <c r="AB9" t="n">
-        <v>106.2613410896843</v>
+        <v>137.3277752667465</v>
       </c>
       <c r="AC9" t="n">
-        <v>96.11990783484063</v>
+        <v>124.2214051360682</v>
       </c>
       <c r="AD9" t="n">
-        <v>77662.5601954259</v>
+        <v>100367.890182719</v>
       </c>
       <c r="AE9" t="n">
-        <v>106261.3410896843</v>
+        <v>137327.7752667465</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.845668935738829e-06</v>
+        <v>7.537457967156529e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.212239583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>96119.90783484063</v>
+        <v>124221.4051360682</v>
       </c>
     </row>
   </sheetData>
@@ -12452,28 +12452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.3409212104717</v>
+        <v>143.2785530084849</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.2368280642162</v>
+        <v>196.0400372297667</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.0893132455026</v>
+        <v>177.3302512205336</v>
       </c>
       <c r="AD2" t="n">
-        <v>108340.9212104717</v>
+        <v>143278.5530084849</v>
       </c>
       <c r="AE2" t="n">
-        <v>148236.8280642162</v>
+        <v>196040.0372297667</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.864938501700761e-06</v>
+        <v>5.508426084777014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>134089.3132455026</v>
+        <v>177330.2512205336</v>
       </c>
     </row>
     <row r="3">
@@ -12558,28 +12558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.21235074772248</v>
+        <v>123.0646416911641</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.6960299472403</v>
+        <v>168.3824719905932</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.1769702470492</v>
+        <v>152.3122851901414</v>
       </c>
       <c r="AD3" t="n">
-        <v>88212.35074772248</v>
+        <v>123064.6416911641</v>
       </c>
       <c r="AE3" t="n">
-        <v>120696.0299472403</v>
+        <v>168382.4719905932</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.320571269574962e-06</v>
+        <v>6.384472611481673e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.778645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>109176.9702470492</v>
+        <v>152312.2851901414</v>
       </c>
     </row>
     <row r="4">
@@ -12664,28 +12664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.54514022480058</v>
+        <v>108.922235611381</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.0466348407568</v>
+        <v>149.0322080733214</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.8758682875691</v>
+        <v>134.8087833028619</v>
       </c>
       <c r="AD4" t="n">
-        <v>85545.14022480058</v>
+        <v>108922.235611381</v>
       </c>
       <c r="AE4" t="n">
-        <v>117046.6348407568</v>
+        <v>149032.2080733214</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.493907702934338e-06</v>
+        <v>6.717747105992525e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.544270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>105875.8682875691</v>
+        <v>134808.7833028619</v>
       </c>
     </row>
     <row r="5">
@@ -12770,28 +12770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.22102087603578</v>
+        <v>107.427524062024</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.2349163317549</v>
+        <v>146.9870777894726</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.2370576503029</v>
+        <v>132.9588373829446</v>
       </c>
       <c r="AD5" t="n">
-        <v>84221.02087603578</v>
+        <v>107427.5240620241</v>
       </c>
       <c r="AE5" t="n">
-        <v>115234.9163317549</v>
+        <v>146987.0777894726</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.572275953989096e-06</v>
+        <v>6.86842598376673e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.440104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>104237.0576503029</v>
+        <v>132958.8373829446</v>
       </c>
     </row>
     <row r="6">
@@ -12876,28 +12876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.20422379163023</v>
+        <v>106.4107269776185</v>
       </c>
       <c r="AB6" t="n">
-        <v>113.8436897029504</v>
+        <v>145.5958511606682</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.9786077383522</v>
+        <v>131.700387470994</v>
       </c>
       <c r="AD6" t="n">
-        <v>83204.22379163023</v>
+        <v>106410.7269776185</v>
       </c>
       <c r="AE6" t="n">
-        <v>113843.6897029504</v>
+        <v>145595.8511606682</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.624513329419998e-06</v>
+        <v>6.968862946463504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.381510416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>102978.6077383522</v>
+        <v>131700.387470994</v>
       </c>
     </row>
     <row r="7">
@@ -12982,28 +12982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>82.64092908161383</v>
+        <v>105.8474322676021</v>
       </c>
       <c r="AB7" t="n">
-        <v>113.0729650298977</v>
+        <v>144.8251264876154</v>
       </c>
       <c r="AC7" t="n">
-        <v>102.2814399463765</v>
+        <v>131.0032196790183</v>
       </c>
       <c r="AD7" t="n">
-        <v>82640.92908161384</v>
+        <v>105847.4322676021</v>
       </c>
       <c r="AE7" t="n">
-        <v>113072.9650298977</v>
+        <v>144825.1264876154</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.648474757347472e-06</v>
+        <v>7.014933657770516e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>102281.4399463765</v>
+        <v>131003.2196790182</v>
       </c>
     </row>
     <row r="8">
@@ -13088,28 +13088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>81.85166985266574</v>
+        <v>105.058173038654</v>
       </c>
       <c r="AB8" t="n">
-        <v>111.9930657331917</v>
+        <v>143.7452271909094</v>
       </c>
       <c r="AC8" t="n">
-        <v>101.3046047228996</v>
+        <v>130.0263844555414</v>
       </c>
       <c r="AD8" t="n">
-        <v>81851.66985266574</v>
+        <v>105058.173038654</v>
       </c>
       <c r="AE8" t="n">
-        <v>111993.0657331917</v>
+        <v>143745.2271909094</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.680455829006522e-06</v>
+        <v>7.07642376279066e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.309895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>101304.6047228996</v>
+        <v>130026.3844555414</v>
       </c>
     </row>
     <row r="9">
@@ -13194,28 +13194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>81.26037851238213</v>
+        <v>104.4668816983704</v>
       </c>
       <c r="AB9" t="n">
-        <v>111.1840348354832</v>
+        <v>142.9361962932009</v>
       </c>
       <c r="AC9" t="n">
-        <v>100.5727865985862</v>
+        <v>129.2945663312279</v>
       </c>
       <c r="AD9" t="n">
-        <v>81260.37851238213</v>
+        <v>104466.8816983704</v>
       </c>
       <c r="AE9" t="n">
-        <v>111184.0348354832</v>
+        <v>142936.1962932009</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.70843926670819e-06</v>
+        <v>7.130227604683284e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.27734375</v>
       </c>
       <c r="AH9" t="n">
-        <v>100572.7865985862</v>
+        <v>129294.5663312279</v>
       </c>
     </row>
     <row r="10">
@@ -13300,28 +13300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>80.55518517335743</v>
+        <v>103.7616883593457</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.2191581980957</v>
+        <v>141.9713196558134</v>
       </c>
       <c r="AC10" t="n">
-        <v>99.69999643325774</v>
+        <v>128.4217761658995</v>
       </c>
       <c r="AD10" t="n">
-        <v>80555.18517335743</v>
+        <v>103761.6883593457</v>
       </c>
       <c r="AE10" t="n">
-        <v>110219.1581980957</v>
+        <v>141971.3196558134</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.706732959531259e-06</v>
+        <v>7.126946882616661e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.283854166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>99699.99643325774</v>
+        <v>128421.7761658995</v>
       </c>
     </row>
     <row r="11">
@@ -13406,28 +13406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>80.07935696400297</v>
+        <v>103.2858601499913</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.5681090499982</v>
+        <v>141.3202705077159</v>
       </c>
       <c r="AC11" t="n">
-        <v>99.11108250210124</v>
+        <v>127.832862234743</v>
       </c>
       <c r="AD11" t="n">
-        <v>80079.35696400297</v>
+        <v>103285.8601499912</v>
       </c>
       <c r="AE11" t="n">
-        <v>109568.1090499982</v>
+        <v>141320.2705077159</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.738153387403602e-06</v>
+        <v>7.187359036100627e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.244791666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>99111.08250210124</v>
+        <v>127832.862234743</v>
       </c>
     </row>
   </sheetData>
@@ -13703,28 +13703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.3984879718596</v>
+        <v>170.5918029439472</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.8899404858417</v>
+        <v>233.4112307669916</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.3397426570771</v>
+        <v>211.1347904973772</v>
       </c>
       <c r="AD2" t="n">
-        <v>134398.4879718596</v>
+        <v>170591.8029439472</v>
       </c>
       <c r="AE2" t="n">
-        <v>183889.9404858417</v>
+        <v>233411.2307669916</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.488143764056039e-06</v>
+        <v>4.635223115628912e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.158854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>166339.7426570771</v>
+        <v>211134.7904973772</v>
       </c>
     </row>
     <row r="3">
@@ -13809,28 +13809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.4455128022494</v>
+        <v>133.6313131895392</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.7481790112276</v>
+        <v>182.8402581033087</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.456422979326</v>
+        <v>165.3902404878942</v>
       </c>
       <c r="AD3" t="n">
-        <v>109445.5128022494</v>
+        <v>133631.3131895392</v>
       </c>
       <c r="AE3" t="n">
-        <v>149748.1790112276</v>
+        <v>182840.2581033087</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.99646839169836e-06</v>
+        <v>5.582193342321198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.110677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>135456.422979326</v>
+        <v>165390.2404878942</v>
       </c>
     </row>
     <row r="4">
@@ -13915,28 +13915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.44585468028195</v>
+        <v>129.6390801438185</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.856740913663</v>
+        <v>177.3779087252646</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.6542730089598</v>
+        <v>160.4492100680334</v>
       </c>
       <c r="AD4" t="n">
-        <v>93445.85468028195</v>
+        <v>129639.0801438185</v>
       </c>
       <c r="AE4" t="n">
-        <v>127856.740913663</v>
+        <v>177377.9087252646</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.193727992631163e-06</v>
+        <v>5.949673017423634e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.798177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>115654.2730089598</v>
+        <v>160449.2100680334</v>
       </c>
     </row>
     <row r="5">
@@ -14021,28 +14021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.48847367060567</v>
+        <v>127.6816991341422</v>
       </c>
       <c r="AB5" t="n">
-        <v>125.1785658626697</v>
+        <v>174.6997336742713</v>
       </c>
       <c r="AC5" t="n">
-        <v>113.2316992259901</v>
+        <v>158.0266362850637</v>
       </c>
       <c r="AD5" t="n">
-        <v>91488.47367060567</v>
+        <v>127681.6991341422</v>
       </c>
       <c r="AE5" t="n">
-        <v>125178.5658626697</v>
+        <v>174699.7336742713</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.299369167271942e-06</v>
+        <v>6.146474513274056e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.641927083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>113231.6992259901</v>
+        <v>158026.6362850637</v>
       </c>
     </row>
     <row r="6">
@@ -14127,28 +14127,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>90.69884326019546</v>
+        <v>114.9698949935058</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.0981586991119</v>
+        <v>157.3068824438423</v>
       </c>
       <c r="AC6" t="n">
-        <v>112.2544046057609</v>
+        <v>142.2937343650413</v>
       </c>
       <c r="AD6" t="n">
-        <v>90698.84326019546</v>
+        <v>114969.8949935058</v>
       </c>
       <c r="AE6" t="n">
-        <v>124098.1586991119</v>
+        <v>157306.8824438423</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.344166672063934e-06</v>
+        <v>6.229928866970983e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>112254.4046057609</v>
+        <v>142293.7343650413</v>
       </c>
     </row>
     <row r="7">
@@ -14233,28 +14233,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>89.88100910561415</v>
+        <v>114.1520608389245</v>
       </c>
       <c r="AB7" t="n">
-        <v>122.9791619285178</v>
+        <v>156.1878856732482</v>
       </c>
       <c r="AC7" t="n">
-        <v>111.2422033164302</v>
+        <v>141.2815330757106</v>
       </c>
       <c r="AD7" t="n">
-        <v>89881.00910561415</v>
+        <v>114152.0608389245</v>
       </c>
       <c r="AE7" t="n">
-        <v>122979.1619285178</v>
+        <v>156187.8856732482</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.376564867493856e-06</v>
+        <v>6.290284247769654e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.537760416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>111242.2033164302</v>
+        <v>141281.5330757106</v>
       </c>
     </row>
     <row r="8">
@@ -14339,28 +14339,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>89.29907444031782</v>
+        <v>113.399533973036</v>
       </c>
       <c r="AB8" t="n">
-        <v>122.1829332463143</v>
+        <v>155.1582452161978</v>
       </c>
       <c r="AC8" t="n">
-        <v>110.5219655821419</v>
+        <v>140.3501600587713</v>
       </c>
       <c r="AD8" t="n">
-        <v>89299.07444031783</v>
+        <v>113399.533973036</v>
       </c>
       <c r="AE8" t="n">
-        <v>122182.9332463143</v>
+        <v>155158.2452161978</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.402610475584578e-06</v>
+        <v>6.338805240176428e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.498697916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>110521.9655821419</v>
+        <v>140350.1600587713</v>
       </c>
     </row>
     <row r="9">
@@ -14445,28 +14445,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>88.52657616258992</v>
+        <v>112.6270356953081</v>
       </c>
       <c r="AB9" t="n">
-        <v>121.1259670225087</v>
+        <v>154.1012789923923</v>
       </c>
       <c r="AC9" t="n">
-        <v>109.5658747312746</v>
+        <v>139.394069207904</v>
       </c>
       <c r="AD9" t="n">
-        <v>88526.57616258992</v>
+        <v>112627.0356953081</v>
       </c>
       <c r="AE9" t="n">
-        <v>121125.9670225087</v>
+        <v>154101.2789923923</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.436702694304954e-06</v>
+        <v>6.402316457879604e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.459635416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>109565.8747312746</v>
+        <v>139394.069207904</v>
       </c>
     </row>
     <row r="10">
@@ -14551,28 +14551,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>87.90232540605808</v>
+        <v>112.0027849387763</v>
       </c>
       <c r="AB10" t="n">
-        <v>120.2718395974226</v>
+        <v>153.2471515673062</v>
       </c>
       <c r="AC10" t="n">
-        <v>108.793264028863</v>
+        <v>138.6214585054924</v>
       </c>
       <c r="AD10" t="n">
-        <v>87902.32540605808</v>
+        <v>112002.7849387763</v>
       </c>
       <c r="AE10" t="n">
-        <v>120271.8395974226</v>
+        <v>153247.1515673062</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.459030862397181e-06</v>
+        <v>6.443912141523714e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>108793.2640288631</v>
+        <v>138621.4585054924</v>
       </c>
     </row>
     <row r="11">
@@ -14657,28 +14657,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>87.67756248040141</v>
+        <v>111.7780220131196</v>
       </c>
       <c r="AB11" t="n">
-        <v>119.9643090466988</v>
+        <v>152.9396210165824</v>
       </c>
       <c r="AC11" t="n">
-        <v>108.5150837622784</v>
+        <v>138.3432782389078</v>
       </c>
       <c r="AD11" t="n">
-        <v>87677.56248040141</v>
+        <v>111778.0220131196</v>
       </c>
       <c r="AE11" t="n">
-        <v>119964.3090466988</v>
+        <v>152939.6210165824</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.460583717080096e-06</v>
+        <v>6.44680499201951e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>108515.0837622784</v>
+        <v>138343.2782389078</v>
       </c>
     </row>
     <row r="12">
@@ -14763,28 +14763,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>87.08864979835064</v>
+        <v>111.1891093310688</v>
       </c>
       <c r="AB12" t="n">
-        <v>119.1585327341235</v>
+        <v>152.1338447040071</v>
       </c>
       <c r="AC12" t="n">
-        <v>107.7862096100609</v>
+        <v>137.6144040866903</v>
       </c>
       <c r="AD12" t="n">
-        <v>87088.64979835064</v>
+        <v>111189.1093310688</v>
       </c>
       <c r="AE12" t="n">
-        <v>119158.5327341235</v>
+        <v>152133.8447040071</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.459454368219794e-06</v>
+        <v>6.44470110074984e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>107786.2096100609</v>
+        <v>137614.4040866903</v>
       </c>
     </row>
     <row r="13">
@@ -14869,28 +14869,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>86.56189614303231</v>
+        <v>110.6623556757505</v>
       </c>
       <c r="AB13" t="n">
-        <v>118.4378051441861</v>
+        <v>151.4131171140697</v>
       </c>
       <c r="AC13" t="n">
-        <v>107.1342672497594</v>
+        <v>136.9624617263887</v>
       </c>
       <c r="AD13" t="n">
-        <v>86561.89614303231</v>
+        <v>110662.3556757505</v>
       </c>
       <c r="AE13" t="n">
-        <v>118437.8051441861</v>
+        <v>151413.1171140697</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.494558295294191e-06</v>
+        <v>6.510097054382097e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.381510416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>107134.2672497594</v>
+        <v>136962.4617263887</v>
       </c>
     </row>
     <row r="14">
@@ -14975,28 +14975,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>86.18448382544432</v>
+        <v>110.2849433581625</v>
       </c>
       <c r="AB14" t="n">
-        <v>117.9214129610062</v>
+        <v>150.8967249308897</v>
       </c>
       <c r="AC14" t="n">
-        <v>106.667158811781</v>
+        <v>136.4953532884103</v>
       </c>
       <c r="AD14" t="n">
-        <v>86184.48382544432</v>
+        <v>110284.9433581625</v>
       </c>
       <c r="AE14" t="n">
-        <v>117921.4129610062</v>
+        <v>150896.7249308897</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.495287666433136e-06</v>
+        <v>6.511455817493758e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.381510416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>106667.158811781</v>
+        <v>136495.3532884103</v>
       </c>
     </row>
     <row r="15">
@@ -15081,28 +15081,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>86.04226649960441</v>
+        <v>110.1427260323226</v>
       </c>
       <c r="AB15" t="n">
-        <v>117.7268249416065</v>
+        <v>150.7021369114901</v>
       </c>
       <c r="AC15" t="n">
-        <v>106.4911419998467</v>
+        <v>136.3193364764761</v>
       </c>
       <c r="AD15" t="n">
-        <v>86042.2664996044</v>
+        <v>110142.7260323226</v>
       </c>
       <c r="AE15" t="n">
-        <v>117726.8249416065</v>
+        <v>150702.1369114901</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.492840743902481e-06</v>
+        <v>6.506897386409472e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.388020833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>106491.1419998467</v>
+        <v>136319.3364764761</v>
       </c>
     </row>
   </sheetData>
@@ -15378,28 +15378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.55734231475601</v>
+        <v>117.8334519275111</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.6950861616664</v>
+        <v>161.2249273721622</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.6533095175001</v>
+        <v>145.8378465844142</v>
       </c>
       <c r="AD2" t="n">
-        <v>84557.34231475601</v>
+        <v>117833.4519275111</v>
       </c>
       <c r="AE2" t="n">
-        <v>115695.0861616664</v>
+        <v>161224.9273721622</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.314289241180893e-06</v>
+        <v>6.643484017533935e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>5</v>
       </c>
       <c r="AH2" t="n">
-        <v>104653.3095175001</v>
+        <v>145837.8465844142</v>
       </c>
     </row>
     <row r="3">
@@ -15484,28 +15484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.03257349151683</v>
+        <v>101.188289123714</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.1358537221158</v>
+        <v>138.4502812912622</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.81551961252853</v>
+        <v>125.2367807610516</v>
       </c>
       <c r="AD3" t="n">
-        <v>79032.57349151683</v>
+        <v>101188.289123714</v>
       </c>
       <c r="AE3" t="n">
-        <v>108135.8537221158</v>
+        <v>138450.2812912622</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.726920898903794e-06</v>
+        <v>7.470603084014048e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.446614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>97815.51961252853</v>
+        <v>125236.7807610516</v>
       </c>
     </row>
     <row r="4">
@@ -15590,28 +15590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.37749613083533</v>
+        <v>99.53321176303255</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.8713038603727</v>
+        <v>136.1857314295191</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.76709521127373</v>
+        <v>123.1883563597967</v>
       </c>
       <c r="AD4" t="n">
-        <v>77377.49613083532</v>
+        <v>99533.21176303255</v>
       </c>
       <c r="AE4" t="n">
-        <v>105871.3038603727</v>
+        <v>136185.731429519</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.847241042390078e-06</v>
+        <v>7.711784493381238e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.309895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>95767.09521127373</v>
+        <v>123188.3563597967</v>
       </c>
     </row>
     <row r="5">
@@ -15696,28 +15696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>76.06499289804896</v>
+        <v>98.22070853024617</v>
       </c>
       <c r="AB5" t="n">
-        <v>104.0754790337192</v>
+        <v>134.3899066028656</v>
       </c>
       <c r="AC5" t="n">
-        <v>94.14266138561955</v>
+        <v>121.5639225341426</v>
       </c>
       <c r="AD5" t="n">
-        <v>76064.99289804895</v>
+        <v>98220.70853024616</v>
       </c>
       <c r="AE5" t="n">
-        <v>104075.4790337192</v>
+        <v>134389.9066028656</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.931085881113121e-06</v>
+        <v>7.87985125082899e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH5" t="n">
-        <v>94142.66138561955</v>
+        <v>121563.9225341426</v>
       </c>
     </row>
     <row r="6">
@@ -15802,28 +15802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>75.01944877291483</v>
+        <v>97.17516440511204</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.6449194355601</v>
+        <v>132.9593470047064</v>
       </c>
       <c r="AC6" t="n">
-        <v>92.84863238770522</v>
+        <v>120.2698935362283</v>
       </c>
       <c r="AD6" t="n">
-        <v>75019.44877291482</v>
+        <v>97175.16440511204</v>
       </c>
       <c r="AE6" t="n">
-        <v>102644.91943556</v>
+        <v>132959.3470047064</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.985455211869775e-06</v>
+        <v>7.988834430521885e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.16015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>92848.63238770522</v>
+        <v>120269.8935362283</v>
       </c>
     </row>
     <row r="7">
@@ -15908,28 +15908,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>74.52184946127538</v>
+        <v>96.67756509347259</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.964082104843</v>
+        <v>132.2785096739894</v>
       </c>
       <c r="AC7" t="n">
-        <v>92.2327732162704</v>
+        <v>119.6540343647934</v>
       </c>
       <c r="AD7" t="n">
-        <v>74521.84946127539</v>
+        <v>96677.5650934726</v>
       </c>
       <c r="AE7" t="n">
-        <v>101964.082104843</v>
+        <v>132278.5096739894</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.98130624140473e-06</v>
+        <v>7.980517830198876e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.16015625</v>
       </c>
       <c r="AH7" t="n">
-        <v>92232.77321627041</v>
+        <v>119654.0343647934</v>
       </c>
     </row>
     <row r="8">
@@ -16014,28 +16014,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>74.37470744980791</v>
+        <v>96.53042308200513</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.7627559133059</v>
+        <v>132.0771834824523</v>
       </c>
       <c r="AC8" t="n">
-        <v>92.05066131389046</v>
+        <v>119.4719224624135</v>
       </c>
       <c r="AD8" t="n">
-        <v>74374.70744980792</v>
+        <v>96530.42308200513</v>
       </c>
       <c r="AE8" t="n">
-        <v>101762.7559133059</v>
+        <v>132077.1834824523</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.007421846908628e-06</v>
+        <v>8.032866492354734e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.134114583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>92050.66131389046</v>
+        <v>119471.9224624135</v>
       </c>
     </row>
   </sheetData>
@@ -16311,28 +16311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.43886785149736</v>
+        <v>96.81470671981279</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.2187871223402</v>
+        <v>132.4661528974095</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.36773094788764</v>
+        <v>119.8237691823293</v>
       </c>
       <c r="AD2" t="n">
-        <v>75438.86785149736</v>
+        <v>96814.70671981279</v>
       </c>
       <c r="AE2" t="n">
-        <v>103218.7871223402</v>
+        <v>132466.1528974095</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.748954630577325e-06</v>
+        <v>7.84304753898105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.602864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>93367.73094788764</v>
+        <v>119823.7691823293</v>
       </c>
     </row>
     <row r="3">
@@ -16417,28 +16417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.85839157856107</v>
+        <v>93.06363824628431</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.31982152624633</v>
+        <v>127.3337755264688</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.93631575254199</v>
+        <v>115.1812187043326</v>
       </c>
       <c r="AD3" t="n">
-        <v>71858.39157856107</v>
+        <v>93063.63824628432</v>
       </c>
       <c r="AE3" t="n">
-        <v>98319.82152624633</v>
+        <v>127333.7755264688</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.087517371857599e-06</v>
+        <v>8.551341966747974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.225260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>88936.31575254198</v>
+        <v>115181.2187043326</v>
       </c>
     </row>
     <row r="4">
@@ -16523,28 +16523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.5240056563585</v>
+        <v>91.72925232408174</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.49405583853756</v>
+        <v>125.50800983876</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.28479857958932</v>
+        <v>113.5297015313799</v>
       </c>
       <c r="AD4" t="n">
-        <v>70524.00565635849</v>
+        <v>91729.25232408174</v>
       </c>
       <c r="AE4" t="n">
-        <v>96494.05583853756</v>
+        <v>125508.00983876</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.180264843781665e-06</v>
+        <v>8.745375478246816e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.127604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>87284.79857958932</v>
+        <v>113529.7015313799</v>
       </c>
     </row>
     <row r="5">
@@ -16629,28 +16629,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.61970521900182</v>
+        <v>90.82495188672506</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.25675208522709</v>
+        <v>124.2707060854495</v>
       </c>
       <c r="AC5" t="n">
-        <v>86.16558135992769</v>
+        <v>112.4104843117183</v>
       </c>
       <c r="AD5" t="n">
-        <v>69619.70521900181</v>
+        <v>90824.95188672506</v>
       </c>
       <c r="AE5" t="n">
-        <v>95256.7520852271</v>
+        <v>124270.7060854495</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.238543558272545e-06</v>
+        <v>8.867298193591142e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.075520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>86165.58135992769</v>
+        <v>112410.4843117183</v>
       </c>
     </row>
   </sheetData>
@@ -30499,28 +30499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.48409012145763</v>
+        <v>89.92960918122476</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.0711975258514</v>
+        <v>123.0456586960522</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.99773586727129</v>
+        <v>111.3023537257999</v>
       </c>
       <c r="AD2" t="n">
-        <v>69484.09012145763</v>
+        <v>89929.60918122476</v>
       </c>
       <c r="AE2" t="n">
-        <v>95071.1975258514</v>
+        <v>123045.6586960522</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.063396801651935e-06</v>
+        <v>8.833238582488823e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.39453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>85997.73586727129</v>
+        <v>111302.3537257999</v>
       </c>
     </row>
     <row r="3">
@@ -30605,28 +30605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.54893616941331</v>
+        <v>86.99445522918045</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.05519039881295</v>
+        <v>119.0296515690138</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.3650108239347</v>
+        <v>107.6696286824633</v>
       </c>
       <c r="AD3" t="n">
-        <v>66548.93616941331</v>
+        <v>86994.45522918044</v>
       </c>
       <c r="AE3" t="n">
-        <v>91055.19039881295</v>
+        <v>119029.6515690138</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.365762586822245e-06</v>
+        <v>9.490538189188589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.088541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>82365.0108239347</v>
+        <v>107669.6286824633</v>
       </c>
     </row>
     <row r="4">
@@ -30711,28 +30711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.90669853381688</v>
+        <v>86.352217593584</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.17645253226556</v>
+        <v>118.1509137024664</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.57013846605396</v>
+        <v>106.8747563245826</v>
       </c>
       <c r="AD4" t="n">
-        <v>65906.69853381687</v>
+        <v>86352.21759358401</v>
       </c>
       <c r="AE4" t="n">
-        <v>90176.45253226555</v>
+        <v>118150.9137024664</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.415352330979349e-06</v>
+        <v>9.598339140650232e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.04296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>81570.13846605396</v>
+        <v>106874.7563245826</v>
       </c>
     </row>
   </sheetData>
@@ -31008,28 +31008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.63725412412504</v>
+        <v>77.57675746018536</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.23007798567706</v>
+        <v>106.1439420019787</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.57303194636437</v>
+        <v>96.01371315129498</v>
       </c>
       <c r="AD2" t="n">
-        <v>58637.25412412504</v>
+        <v>77576.75746018536</v>
       </c>
       <c r="AE2" t="n">
-        <v>80230.07798567705</v>
+        <v>106143.9420019787</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.70493010528463e-06</v>
+        <v>1.119080311691091e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.075520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>72573.03194636437</v>
+        <v>96013.71315129499</v>
       </c>
     </row>
   </sheetData>
@@ -31305,28 +31305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.1691062266217</v>
+        <v>139.5682829294897</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.8970108727135</v>
+        <v>190.9634820221244</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.1636821157839</v>
+        <v>172.7381953169171</v>
       </c>
       <c r="AD2" t="n">
-        <v>105169.1062266217</v>
+        <v>139568.2829294897</v>
       </c>
       <c r="AE2" t="n">
-        <v>143897.0108727135</v>
+        <v>190963.4820221244</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.967347063218701e-06</v>
+        <v>5.758369007844987e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.403645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>130163.6821157839</v>
+        <v>172738.1953169171</v>
       </c>
     </row>
     <row r="3">
@@ -31411,28 +31411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.93746008291488</v>
+        <v>120.4218881318035</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.5834241785592</v>
+        <v>164.7665399806193</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.3614272043604</v>
+        <v>149.0414526562058</v>
       </c>
       <c r="AD3" t="n">
-        <v>85937.46008291488</v>
+        <v>120421.8881318035</v>
       </c>
       <c r="AE3" t="n">
-        <v>117583.4241785592</v>
+        <v>164766.5399806193</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.415120301299028e-06</v>
+        <v>6.627307989963005e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.694010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>106361.4272043604</v>
+        <v>149041.4526562058</v>
       </c>
     </row>
     <row r="4">
@@ -31517,28 +31517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.67686060934389</v>
+        <v>106.6381218656302</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.4903722482108</v>
+        <v>145.9069828784</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.5635718091178</v>
+        <v>131.9818252142617</v>
       </c>
       <c r="AD4" t="n">
-        <v>83676.86060934389</v>
+        <v>106638.1218656302</v>
       </c>
       <c r="AE4" t="n">
-        <v>114490.3722482108</v>
+        <v>145906.9828784</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.563549202353915e-06</v>
+        <v>6.915345878856205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.498697916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>103563.5718091178</v>
+        <v>131981.8252142617</v>
       </c>
     </row>
     <row r="5">
@@ -31623,28 +31623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.0631434837027</v>
+        <v>105.024404739989</v>
       </c>
       <c r="AB5" t="n">
-        <v>112.2824132847345</v>
+        <v>143.6990239149238</v>
       </c>
       <c r="AC5" t="n">
-        <v>101.5663373502251</v>
+        <v>129.9845907553691</v>
       </c>
       <c r="AD5" t="n">
-        <v>82063.1434837027</v>
+        <v>105024.404739989</v>
       </c>
       <c r="AE5" t="n">
-        <v>112282.4132847345</v>
+        <v>143699.0239149238</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.66886995848475e-06</v>
+        <v>7.119729041683391e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.368489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>101566.3373502251</v>
+        <v>129984.590755369</v>
       </c>
     </row>
     <row r="6">
@@ -31729,28 +31729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>81.3836364148094</v>
+        <v>104.3448976710957</v>
       </c>
       <c r="AB6" t="n">
-        <v>111.352681735339</v>
+        <v>142.7692923655283</v>
       </c>
       <c r="AC6" t="n">
-        <v>100.7253380750172</v>
+        <v>129.1435914801611</v>
       </c>
       <c r="AD6" t="n">
-        <v>81383.6364148094</v>
+        <v>104344.8976710957</v>
       </c>
       <c r="AE6" t="n">
-        <v>111352.681735339</v>
+        <v>142769.2923655283</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.693956880059627e-06</v>
+        <v>7.168412174670981e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.3359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>100725.3380750172</v>
+        <v>129143.5914801611</v>
       </c>
     </row>
     <row r="7">
@@ -31835,28 +31835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>80.3872127104155</v>
+        <v>103.3484739667018</v>
       </c>
       <c r="AB7" t="n">
-        <v>109.9893308638766</v>
+        <v>141.4059414940658</v>
       </c>
       <c r="AC7" t="n">
-        <v>99.49210349725175</v>
+        <v>127.9103569023957</v>
       </c>
       <c r="AD7" t="n">
-        <v>80387.21271041549</v>
+        <v>103348.4739667018</v>
       </c>
       <c r="AE7" t="n">
-        <v>109989.3308638766</v>
+        <v>141405.9414940658</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.751811900374602e-06</v>
+        <v>7.28068436556483e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.270833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>99492.10349725175</v>
+        <v>127910.3569023957</v>
       </c>
     </row>
     <row r="8">
@@ -31941,28 +31941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>79.96569700939776</v>
+        <v>102.926958265684</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.4125944857841</v>
+        <v>140.8292051159734</v>
       </c>
       <c r="AC8" t="n">
-        <v>98.97041002962965</v>
+        <v>127.3886634347736</v>
       </c>
       <c r="AD8" t="n">
-        <v>79965.69700939776</v>
+        <v>102926.958265684</v>
       </c>
       <c r="AE8" t="n">
-        <v>109412.5944857841</v>
+        <v>140829.2051159734</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.748636029046674e-06</v>
+        <v>7.274521338915763e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.27734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>98970.41002962965</v>
+        <v>127388.6634347736</v>
       </c>
     </row>
     <row r="9">
@@ -32047,28 +32047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>79.1656048160449</v>
+        <v>102.1268660723312</v>
       </c>
       <c r="AB9" t="n">
-        <v>108.3178730492629</v>
+        <v>139.7344836794522</v>
       </c>
       <c r="AC9" t="n">
-        <v>97.9801672705585</v>
+        <v>126.3984206757024</v>
       </c>
       <c r="AD9" t="n">
-        <v>79165.6048160449</v>
+        <v>102126.8660723312</v>
       </c>
       <c r="AE9" t="n">
-        <v>108317.8730492629</v>
+        <v>139734.4836794522</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.782388894090005e-06</v>
+        <v>7.340021412837239e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.23828125</v>
       </c>
       <c r="AH9" t="n">
-        <v>97980.16727055849</v>
+        <v>126398.4206757024</v>
       </c>
     </row>
     <row r="10">
@@ -32153,28 +32153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>78.73418436518779</v>
+        <v>101.6954456214741</v>
       </c>
       <c r="AB10" t="n">
-        <v>107.7275845554735</v>
+        <v>139.1441951856627</v>
       </c>
       <c r="AC10" t="n">
-        <v>97.44621508214104</v>
+        <v>125.864468487285</v>
       </c>
       <c r="AD10" t="n">
-        <v>78734.18436518779</v>
+        <v>101695.4456214741</v>
       </c>
       <c r="AE10" t="n">
-        <v>107727.5845554735</v>
+        <v>139144.1951856627</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.776751107003994e-06</v>
+        <v>7.329080846150137e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.244791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>97446.21508214103</v>
+        <v>125864.468487285</v>
       </c>
     </row>
   </sheetData>
@@ -32450,28 +32450,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.5981994080339</v>
+        <v>166.3748405153879</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.2712886132907</v>
+        <v>227.6413967329873</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.7843445772669</v>
+        <v>205.9156213255635</v>
       </c>
       <c r="AD2" t="n">
-        <v>118598.1994080339</v>
+        <v>166374.8405153879</v>
       </c>
       <c r="AE2" t="n">
-        <v>162271.2886132907</v>
+        <v>227641.3967329873</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.576428802134067e-06</v>
+        <v>4.834390983525532e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.99609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>146784.344577267</v>
+        <v>205915.6213255635</v>
       </c>
     </row>
     <row r="3">
@@ -32556,28 +32556,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.8005350707467</v>
+        <v>130.7742859875463</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.1292037908052</v>
+        <v>178.9311474423995</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.1828376746761</v>
+        <v>161.8542098619897</v>
       </c>
       <c r="AD3" t="n">
-        <v>106800.5350707467</v>
+        <v>130774.2859875463</v>
       </c>
       <c r="AE3" t="n">
-        <v>146129.2037908052</v>
+        <v>178931.1474423996</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.082789667621029e-06</v>
+        <v>5.78452257671868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.013020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>132182.8376746761</v>
+        <v>161854.2098619897</v>
       </c>
     </row>
     <row r="4">
@@ -32662,28 +32662,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.72339228418467</v>
+        <v>127.598543541986</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.4999918736461</v>
+        <v>174.5859565245174</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.5224487896032</v>
+        <v>157.923717866795</v>
       </c>
       <c r="AD4" t="n">
-        <v>91723.39228418467</v>
+        <v>127598.543541986</v>
       </c>
       <c r="AE4" t="n">
-        <v>125499.9918736461</v>
+        <v>174585.9565245174</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.24897491231444e-06</v>
+        <v>6.096351278476457e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.752604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>113522.4487896033</v>
+        <v>157923.7178667951</v>
       </c>
     </row>
     <row r="5">
@@ -32768,28 +32768,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.79221831727001</v>
+        <v>113.8512205800902</v>
       </c>
       <c r="AB5" t="n">
-        <v>122.8576744547323</v>
+        <v>155.7762627589759</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.1323104366339</v>
+        <v>140.9091948746598</v>
       </c>
       <c r="AD5" t="n">
-        <v>89792.21831727002</v>
+        <v>113851.2205800902</v>
       </c>
       <c r="AE5" t="n">
-        <v>122857.6744547323</v>
+        <v>155776.2627589758</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.357677380720608e-06</v>
+        <v>6.300319745493463e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.602864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>111132.3104366339</v>
+        <v>140909.1948746598</v>
       </c>
     </row>
     <row r="6">
@@ -32874,28 +32874,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.94601036062274</v>
+        <v>113.005012623443</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.6998553963878</v>
+        <v>154.6184437006314</v>
       </c>
       <c r="AC6" t="n">
-        <v>110.0849920042082</v>
+        <v>139.8618764422341</v>
       </c>
       <c r="AD6" t="n">
-        <v>88946.01036062273</v>
+        <v>113005.012623443</v>
       </c>
       <c r="AE6" t="n">
-        <v>121699.8553963878</v>
+        <v>154618.4437006314</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.405741806951708e-06</v>
+        <v>6.390507461376585e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.537760416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>110084.9920042082</v>
+        <v>139861.8764422341</v>
       </c>
     </row>
     <row r="7">
@@ -32980,28 +32980,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>88.04073943958136</v>
+        <v>111.9291495018094</v>
       </c>
       <c r="AB7" t="n">
-        <v>120.4612237844852</v>
+        <v>153.1464003138819</v>
       </c>
       <c r="AC7" t="n">
-        <v>108.9645736549149</v>
+        <v>138.5303228102897</v>
       </c>
       <c r="AD7" t="n">
-        <v>88040.73943958136</v>
+        <v>111929.1495018094</v>
       </c>
       <c r="AE7" t="n">
-        <v>120461.2237844852</v>
+        <v>153146.4003138819</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.436843713560281e-06</v>
+        <v>6.448866837251593e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.4921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>108964.5736549149</v>
+        <v>138530.3228102897</v>
       </c>
     </row>
     <row r="8">
@@ -33086,28 +33086,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>87.45282454531524</v>
+        <v>111.3412346075433</v>
       </c>
       <c r="AB8" t="n">
-        <v>119.6568126891761</v>
+        <v>152.3419892185728</v>
       </c>
       <c r="AC8" t="n">
-        <v>108.2369344255437</v>
+        <v>137.8026835809186</v>
       </c>
       <c r="AD8" t="n">
-        <v>87452.82454531523</v>
+        <v>111341.2346075433</v>
       </c>
       <c r="AE8" t="n">
-        <v>119656.8126891761</v>
+        <v>152341.9892185728</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.463746506919644e-06</v>
+        <v>6.499347029656066e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.459635416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>108236.9344255437</v>
+        <v>137802.6835809186</v>
       </c>
     </row>
     <row r="9">
@@ -33192,28 +33192,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>86.88929089885329</v>
+        <v>110.7777009610813</v>
       </c>
       <c r="AB9" t="n">
-        <v>118.8857610927374</v>
+        <v>151.5709376221341</v>
       </c>
       <c r="AC9" t="n">
-        <v>107.5394709112912</v>
+        <v>137.105220066666</v>
       </c>
       <c r="AD9" t="n">
-        <v>86889.29089885329</v>
+        <v>110777.7009610813</v>
       </c>
       <c r="AE9" t="n">
-        <v>118885.7610927374</v>
+        <v>151570.9376221341</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.488798843592911e-06</v>
+        <v>6.546355039514196e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>107539.4709112912</v>
+        <v>137105.220066666</v>
       </c>
     </row>
     <row r="10">
@@ -33298,28 +33298,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>86.33581369569164</v>
+        <v>110.2242237579197</v>
       </c>
       <c r="AB10" t="n">
-        <v>118.1284691656812</v>
+        <v>150.8136456950778</v>
       </c>
       <c r="AC10" t="n">
-        <v>106.854453862887</v>
+        <v>136.4202030182619</v>
       </c>
       <c r="AD10" t="n">
-        <v>86335.81369569164</v>
+        <v>110224.2237579197</v>
       </c>
       <c r="AE10" t="n">
-        <v>118128.4691656811</v>
+        <v>150813.6456950778</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.51695899854667e-06</v>
+        <v>6.599194535443745e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.39453125</v>
       </c>
       <c r="AH10" t="n">
-        <v>106854.453862887</v>
+        <v>136420.2030182619</v>
       </c>
     </row>
     <row r="11">
@@ -33404,28 +33404,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>85.70400456889963</v>
+        <v>109.5924146311277</v>
       </c>
       <c r="AB11" t="n">
-        <v>117.2640000449533</v>
+        <v>149.94917657435</v>
       </c>
       <c r="AC11" t="n">
-        <v>106.0724884617511</v>
+        <v>135.638237617126</v>
       </c>
       <c r="AD11" t="n">
-        <v>85704.00456889963</v>
+        <v>109592.4146311277</v>
       </c>
       <c r="AE11" t="n">
-        <v>117264.0000449533</v>
+        <v>149949.17657435</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.519426274128128e-06</v>
+        <v>6.603824112172197e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.388020833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>106072.4884617511</v>
+        <v>135638.237617126</v>
       </c>
     </row>
     <row r="12">
@@ -33510,28 +33510,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>84.95372987376888</v>
+        <v>108.8421399359969</v>
       </c>
       <c r="AB12" t="n">
-        <v>116.2374411072924</v>
+        <v>148.9226176366891</v>
       </c>
       <c r="AC12" t="n">
-        <v>105.1439028683158</v>
+        <v>134.7096520236906</v>
       </c>
       <c r="AD12" t="n">
-        <v>84953.72987376888</v>
+        <v>108842.1399359969</v>
       </c>
       <c r="AE12" t="n">
-        <v>116237.4411072924</v>
+        <v>148922.6176366891</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.549247095338637e-06</v>
+        <v>6.659779669361279e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>105143.9028683158</v>
+        <v>134709.6520236906</v>
       </c>
     </row>
     <row r="13">
@@ -33616,28 +33616,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>84.80187636549415</v>
+        <v>108.6902864277222</v>
       </c>
       <c r="AB13" t="n">
-        <v>116.0296684379671</v>
+        <v>148.7148449673638</v>
       </c>
       <c r="AC13" t="n">
-        <v>104.95595973094</v>
+        <v>134.5217088863149</v>
       </c>
       <c r="AD13" t="n">
-        <v>84801.87636549416</v>
+        <v>108690.2864277222</v>
       </c>
       <c r="AE13" t="n">
-        <v>116029.6684379671</v>
+        <v>148714.8449673638</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.54910475251663e-06</v>
+        <v>6.659512578396177e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>104955.95973094</v>
+        <v>134521.7088863149</v>
       </c>
     </row>
     <row r="14">
@@ -33722,28 +33722,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>84.69891938657626</v>
+        <v>108.5873294488043</v>
       </c>
       <c r="AB14" t="n">
-        <v>115.8887981572703</v>
+        <v>148.5739746866671</v>
       </c>
       <c r="AC14" t="n">
-        <v>104.8285339121202</v>
+        <v>134.3942830674951</v>
       </c>
       <c r="AD14" t="n">
-        <v>84698.91938657626</v>
+        <v>108587.3294488043</v>
       </c>
       <c r="AE14" t="n">
-        <v>115888.7981572703</v>
+        <v>148573.9746866671</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.549840190430334e-06</v>
+        <v>6.660892548382543e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>104828.5339121202</v>
+        <v>134394.2830674951</v>
       </c>
     </row>
   </sheetData>
@@ -34019,28 +34019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.29248592231519</v>
+        <v>73.52762050276114</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.65361857120436</v>
+        <v>100.6037341815185</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.43334339530637</v>
+        <v>91.0022549894873</v>
       </c>
       <c r="AD2" t="n">
-        <v>55292.48592231519</v>
+        <v>73527.62050276114</v>
       </c>
       <c r="AE2" t="n">
-        <v>75653.61857120437</v>
+        <v>100603.7341815186</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.730643147308054e-06</v>
+        <v>1.183097950512452e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>68433.34339530636</v>
+        <v>91002.25498948729</v>
       </c>
     </row>
   </sheetData>
@@ -34316,28 +34316,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.63513258941606</v>
+        <v>110.9916326578728</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.5920575460067</v>
+        <v>151.8636484076843</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.32362258024438</v>
+        <v>137.3699949456656</v>
       </c>
       <c r="AD2" t="n">
-        <v>78635.13258941605</v>
+        <v>110991.6326578728</v>
       </c>
       <c r="AE2" t="n">
-        <v>107592.0575460067</v>
+        <v>151863.6484076843</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.580941312757586e-06</v>
+        <v>7.374173209857228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.752604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>97323.62258024438</v>
+        <v>137369.9949456656</v>
       </c>
     </row>
     <row r="3">
@@ -34422,28 +34422,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.6192182326342</v>
+        <v>96.16186083529918</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.0973063534231</v>
+        <v>131.5729003566908</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.35328272954747</v>
+        <v>119.0157674104086</v>
       </c>
       <c r="AD3" t="n">
-        <v>74619.2182326342</v>
+        <v>96161.86083529919</v>
       </c>
       <c r="AE3" t="n">
-        <v>102097.3063534231</v>
+        <v>131572.9003566907</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.928208017763358e-06</v>
+        <v>8.089293791031164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.329427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>92353.28272954747</v>
+        <v>119015.7674104086</v>
       </c>
     </row>
     <row r="4">
@@ -34528,28 +34528,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.64384296519418</v>
+        <v>94.18648556785915</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.39451076510682</v>
+        <v>128.8701047683744</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.90843815878178</v>
+        <v>116.5709228396429</v>
       </c>
       <c r="AD4" t="n">
-        <v>72643.84296519418</v>
+        <v>94186.48556785916</v>
       </c>
       <c r="AE4" t="n">
-        <v>99394.51076510681</v>
+        <v>128870.1047683744</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.085498331820596e-06</v>
+        <v>8.413199132891602e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>89908.43815878178</v>
+        <v>116570.9228396429</v>
       </c>
     </row>
     <row r="5">
@@ -34634,28 +34634,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.75009088130712</v>
+        <v>93.29273348397209</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.17163973437398</v>
+        <v>127.6472337376416</v>
       </c>
       <c r="AC5" t="n">
-        <v>88.80227622291144</v>
+        <v>115.4647609037726</v>
       </c>
       <c r="AD5" t="n">
-        <v>71750.09088130711</v>
+        <v>93292.73348397209</v>
       </c>
       <c r="AE5" t="n">
-        <v>98171.63973437398</v>
+        <v>127647.2337376416</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.135454989707214e-06</v>
+        <v>8.516074052100433e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>88802.27622291145</v>
+        <v>115464.7609037726</v>
       </c>
     </row>
     <row r="6">
@@ -34740,28 +34740,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>71.21730930874701</v>
+        <v>92.75995191141197</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.44266448213349</v>
+        <v>126.9182584854011</v>
       </c>
       <c r="AC6" t="n">
-        <v>88.14287334562135</v>
+        <v>114.8053580264825</v>
       </c>
       <c r="AD6" t="n">
-        <v>71217.309308747</v>
+        <v>92759.95191141198</v>
       </c>
       <c r="AE6" t="n">
-        <v>97442.66448213349</v>
+        <v>126918.2584854011</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.16307224252424e-06</v>
+        <v>8.572945803985231e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.088541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>88142.87334562135</v>
+        <v>114805.3580264825</v>
       </c>
     </row>
   </sheetData>
@@ -35037,28 +35037,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.92624056900657</v>
+        <v>121.4489447351044</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.3552466641739</v>
+        <v>166.1718041357943</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.4371318948632</v>
+        <v>150.312600372712</v>
       </c>
       <c r="AD2" t="n">
-        <v>98926.24056900656</v>
+        <v>121448.9447351044</v>
       </c>
       <c r="AE2" t="n">
-        <v>135355.2466641739</v>
+        <v>166171.8041357943</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.189758313858567e-06</v>
+        <v>6.319498491843774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.13671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>122437.1318948632</v>
+        <v>150312.600372712</v>
       </c>
     </row>
     <row r="3">
@@ -35143,28 +35143,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.36899953848634</v>
+        <v>103.9769550506048</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.3326549154204</v>
+        <v>142.26585703969</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.7072225866838</v>
+        <v>128.6882033152448</v>
       </c>
       <c r="AD3" t="n">
-        <v>81368.99953848633</v>
+        <v>103976.9550506048</v>
       </c>
       <c r="AE3" t="n">
-        <v>111332.6549154204</v>
+        <v>142265.85703969</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.615617877231976e-06</v>
+        <v>7.163204692649944e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>100707.2225866838</v>
+        <v>128688.2033152448</v>
       </c>
     </row>
     <row r="4">
@@ -35249,28 +35249,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.21997264350861</v>
+        <v>101.6573359550348</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.392261509338</v>
+        <v>139.0920518587608</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.04745620040886</v>
+        <v>125.8173016463189</v>
       </c>
       <c r="AD4" t="n">
-        <v>79219.9726435086</v>
+        <v>101657.3359550348</v>
       </c>
       <c r="AE4" t="n">
-        <v>108392.261509338</v>
+        <v>139092.0518587608</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.7728656845831e-06</v>
+        <v>7.474741550186678e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.342447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>98047.45620040887</v>
+        <v>125817.3016463189</v>
       </c>
     </row>
     <row r="5">
@@ -35355,28 +35355,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.48171213078801</v>
+        <v>100.9190754423143</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.382140906079</v>
+        <v>138.0819312555018</v>
       </c>
       <c r="AC5" t="n">
-        <v>97.13374008981144</v>
+        <v>124.9035855357215</v>
       </c>
       <c r="AD5" t="n">
-        <v>78481.71213078802</v>
+        <v>100919.0754423142</v>
       </c>
       <c r="AE5" t="n">
-        <v>107382.140906079</v>
+        <v>138081.9312555018</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.812410325945438e-06</v>
+        <v>7.553086765359891e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>97133.74008981144</v>
+        <v>124903.5855357215</v>
       </c>
     </row>
     <row r="6">
@@ -35461,28 +35461,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>77.45381446984727</v>
+        <v>99.89117778137353</v>
       </c>
       <c r="AB6" t="n">
-        <v>105.9757259787363</v>
+        <v>136.6755163281591</v>
       </c>
       <c r="AC6" t="n">
-        <v>95.86155142921812</v>
+        <v>123.6313968751281</v>
       </c>
       <c r="AD6" t="n">
-        <v>77453.81446984728</v>
+        <v>99891.17778137352</v>
       </c>
       <c r="AE6" t="n">
-        <v>105975.7259787363</v>
+        <v>136675.5163281591</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.87207946672881e-06</v>
+        <v>7.671302319043643e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.231770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>95861.55142921812</v>
+        <v>123631.3968751281</v>
       </c>
     </row>
     <row r="7">
@@ -35567,28 +35567,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>76.52613844417095</v>
+        <v>98.96350175569718</v>
       </c>
       <c r="AB7" t="n">
-        <v>104.7064387142287</v>
+        <v>135.4062290636515</v>
       </c>
       <c r="AC7" t="n">
-        <v>94.71340315977889</v>
+        <v>122.4832486056889</v>
       </c>
       <c r="AD7" t="n">
-        <v>76526.13844417095</v>
+        <v>98963.50175569719</v>
       </c>
       <c r="AE7" t="n">
-        <v>104706.4387142287</v>
+        <v>135406.2290636515</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.903297596455693e-06</v>
+        <v>7.733151181658118e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>94713.40315977889</v>
+        <v>122483.2486056889</v>
       </c>
     </row>
     <row r="8">
@@ -35673,28 +35673,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>76.07213621804232</v>
+        <v>98.50949952956857</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.0852528392752</v>
+        <v>134.785043188698</v>
       </c>
       <c r="AC8" t="n">
-        <v>94.1515023928909</v>
+        <v>121.921347838801</v>
       </c>
       <c r="AD8" t="n">
-        <v>76072.13621804232</v>
+        <v>98509.49952956857</v>
       </c>
       <c r="AE8" t="n">
-        <v>104085.2528392752</v>
+        <v>134785.043188698</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.929887091315738e-06</v>
+        <v>7.785829866415169e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>94151.50239289091</v>
+        <v>121921.347838801</v>
       </c>
     </row>
     <row r="9">
@@ -35779,28 +35779,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>76.19063367118245</v>
+        <v>98.62799698270869</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.2473862824002</v>
+        <v>134.9471766318229</v>
       </c>
       <c r="AC9" t="n">
-        <v>94.29816204775976</v>
+        <v>122.0680074936698</v>
       </c>
       <c r="AD9" t="n">
-        <v>76190.63367118246</v>
+        <v>98627.99698270869</v>
       </c>
       <c r="AE9" t="n">
-        <v>104247.3862824002</v>
+        <v>134947.1766318229</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.928352598234884e-06</v>
+        <v>7.78278975310374e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>94298.16204775976</v>
+        <v>122068.0074936698</v>
       </c>
     </row>
   </sheetData>
